--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML Practicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E5E97C-97D4-454D-BB74-83C13B35BF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF9F1E-0DFF-40D5-9C54-F2417C3D40F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F4117752-B215-47CE-8E4A-C5938322D3D0}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{F4117752-B215-47CE-8E4A-C5938322D3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Branch</t>
   </si>
   <si>
-    <t xml:space="preserve">Division </t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -65,22 +62,19 @@
     <t>A</t>
   </si>
   <si>
-    <t>Himani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT </t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Supriya </t>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Supriya</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Tannu</t>
   </si>
 </sst>
 </file>
@@ -452,78 +446,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C760C8-EBF7-48D1-BC18-B592CAA54890}">
-  <dimension ref="G7:I12"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G8" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
